--- a/biology/Zoologie/Baeotis_euprepes/Baeotis_euprepes.xlsx
+++ b/biology/Zoologie/Baeotis_euprepes/Baeotis_euprepes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baeotis euprepes est un insecte lépidoptère appartenant à la famille des Riodinidae et au genre Baeotis.
 </t>
@@ -511,13 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Baeotis euprepes a été décrit par Henry Walter Bates en 1868[1].
-Sous-espèces
-Baeotis euprepes euprepes présent au Brésil.
-Baeotis euprepes obscurior Brévignon, 1998 ; présent en Guyane
-Baeotis euprepes orthotaenia Seitz, 1916 ; en Bolivie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baeotis euprepes a été décrit par Henry Walter Bates en 1868.
+</t>
         </is>
       </c>
     </row>
@@ -542,14 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baeotis euprepes est de couleur marron foncé orné de trois lignes jaunes parallèle à la marge séparant les ailes en quatre parties à peu près égales.
-Le revers est identique.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Baeotis euprepes euprepes présent au Brésil.
+Baeotis euprepes obscurior Brévignon, 1998 ; présent en Guyane
+Baeotis euprepes orthotaenia Seitz, 1916 ; en Bolivie.</t>
         </is>
       </c>
     </row>
@@ -574,10 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baeotis euprepes est de couleur marron foncé orné de trois lignes jaunes parallèle à la marge séparant les ailes en quatre parties à peu près égales.
+Le revers est identique.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,15 +625,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baeotis_euprepes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baeotis_euprepes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Baeotis euprepes est présent en Guyane, en Bolivie et au Brésil[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baeotis euprepes est présent en Guyane, en Bolivie et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Baeotis_euprepes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baeotis_euprepes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
